--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G448"/>
+  <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11651,6 +11651,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MXM2</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>12407813034000</v>
+      </c>
+      <c r="D449" t="n">
+        <v>12407813034000</v>
+      </c>
+      <c r="E449" t="n">
+        <v>12407813034000</v>
+      </c>
+      <c r="F449" t="n">
+        <v>12407813034000</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MXM2</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>12464631134000</v>
+      </c>
+      <c r="D450" t="n">
+        <v>12464631134000</v>
+      </c>
+      <c r="E450" t="n">
+        <v>12464631134000</v>
+      </c>
+      <c r="F450" t="n">
+        <v>12464631134000</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G450"/>
+  <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11686,18 +11686,43 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>12464631134000</v>
+        <v>12492275826000</v>
       </c>
       <c r="D450" t="n">
-        <v>12464631134000</v>
+        <v>12492275826000</v>
       </c>
       <c r="E450" t="n">
-        <v>12464631134000</v>
+        <v>12492275826000</v>
       </c>
       <c r="F450" t="n">
-        <v>12464631134000</v>
+        <v>12492275826000</v>
       </c>
       <c r="G450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MXM2</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>12550908428000</v>
+      </c>
+      <c r="D451" t="n">
+        <v>12550908428000</v>
+      </c>
+      <c r="E451" t="n">
+        <v>12550908428000</v>
+      </c>
+      <c r="F451" t="n">
+        <v>12550908428000</v>
+      </c>
+      <c r="G451" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>31503.41666666667</v>
+        <v>31503.45833333333</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>31868.41666666667</v>
+        <v>31868.45833333333</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>32234.41666666667</v>
+        <v>32234.45833333333</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>32599.41666666667</v>
+        <v>32599.45833333333</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>32782.41666666666</v>
+        <v>32782.45833333334</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -11586,16 +11586,16 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>12521706932000</v>
+        <v>12515612425000</v>
       </c>
       <c r="D446" t="n">
-        <v>12521706932000</v>
+        <v>12515612425000</v>
       </c>
       <c r="E446" t="n">
-        <v>12521706932000</v>
+        <v>12515612425000</v>
       </c>
       <c r="F446" t="n">
-        <v>12521706932000</v>
+        <v>12515612425000</v>
       </c>
       <c r="G446" t="n">
         <v>0</v>
@@ -11611,16 +11611,16 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>12369626807000</v>
+        <v>12354753948000</v>
       </c>
       <c r="D447" t="n">
-        <v>12369626807000</v>
+        <v>12354753948000</v>
       </c>
       <c r="E447" t="n">
-        <v>12369626807000</v>
+        <v>12354753948000</v>
       </c>
       <c r="F447" t="n">
-        <v>12369626807000</v>
+        <v>12354753948000</v>
       </c>
       <c r="G447" t="n">
         <v>0</v>
@@ -11636,16 +11636,16 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>12359564213000</v>
+        <v>12344729453000</v>
       </c>
       <c r="D448" t="n">
-        <v>12359564213000</v>
+        <v>12344729453000</v>
       </c>
       <c r="E448" t="n">
-        <v>12359564213000</v>
+        <v>12344729453000</v>
       </c>
       <c r="F448" t="n">
-        <v>12359564213000</v>
+        <v>12344729453000</v>
       </c>
       <c r="G448" t="n">
         <v>0</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>12407813034000</v>
+        <v>12427553603000</v>
       </c>
       <c r="D449" t="n">
-        <v>12407813034000</v>
+        <v>12427553603000</v>
       </c>
       <c r="E449" t="n">
-        <v>12407813034000</v>
+        <v>12427553603000</v>
       </c>
       <c r="F449" t="n">
-        <v>12407813034000</v>
+        <v>12427553603000</v>
       </c>
       <c r="G449" t="n">
         <v>0</v>
@@ -11711,18 +11711,43 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>12550908428000</v>
+        <v>12552101310000</v>
       </c>
       <c r="D451" t="n">
-        <v>12550908428000</v>
+        <v>12552101310000</v>
       </c>
       <c r="E451" t="n">
-        <v>12550908428000</v>
+        <v>12552101310000</v>
       </c>
       <c r="F451" t="n">
-        <v>12550908428000</v>
+        <v>12552101310000</v>
       </c>
       <c r="G451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MXM2</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>12736676540000</v>
+      </c>
+      <c r="D452" t="n">
+        <v>12736676540000</v>
+      </c>
+      <c r="E452" t="n">
+        <v>12736676540000</v>
+      </c>
+      <c r="F452" t="n">
+        <v>12736676540000</v>
+      </c>
+      <c r="G452" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>31503.45833333333</v>
+        <v>31503.41666666667</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11686,16 +11686,16 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>12492275826000</v>
+        <v>12492380715000</v>
       </c>
       <c r="D450" t="n">
-        <v>12492275826000</v>
+        <v>12492380715000</v>
       </c>
       <c r="E450" t="n">
-        <v>12492275826000</v>
+        <v>12492380715000</v>
       </c>
       <c r="F450" t="n">
-        <v>12492275826000</v>
+        <v>12492380715000</v>
       </c>
       <c r="G450" t="n">
         <v>0</v>
@@ -11711,16 +11711,16 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>12552101310000</v>
+        <v>12552103031000</v>
       </c>
       <c r="D451" t="n">
-        <v>12552101310000</v>
+        <v>12552103031000</v>
       </c>
       <c r="E451" t="n">
-        <v>12552101310000</v>
+        <v>12552103031000</v>
       </c>
       <c r="F451" t="n">
-        <v>12552101310000</v>
+        <v>12552103031000</v>
       </c>
       <c r="G451" t="n">
         <v>0</v>
@@ -11736,18 +11736,93 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>12736676540000</v>
+        <v>12748355850000</v>
       </c>
       <c r="D452" t="n">
-        <v>12736676540000</v>
+        <v>12748355850000</v>
       </c>
       <c r="E452" t="n">
-        <v>12736676540000</v>
+        <v>12748355850000</v>
       </c>
       <c r="F452" t="n">
-        <v>12736676540000</v>
+        <v>12748355850000</v>
       </c>
       <c r="G452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MXM2</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>12832232273000</v>
+      </c>
+      <c r="D453" t="n">
+        <v>12832232273000</v>
+      </c>
+      <c r="E453" t="n">
+        <v>12832232273000</v>
+      </c>
+      <c r="F453" t="n">
+        <v>12832232273000</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MXM2</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>12878456979000</v>
+      </c>
+      <c r="D454" t="n">
+        <v>12878456979000</v>
+      </c>
+      <c r="E454" t="n">
+        <v>12878456979000</v>
+      </c>
+      <c r="F454" t="n">
+        <v>12878456979000</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MXM2</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>12989512635000</v>
+      </c>
+      <c r="D455" t="n">
+        <v>12989512635000</v>
+      </c>
+      <c r="E455" t="n">
+        <v>12989512635000</v>
+      </c>
+      <c r="F455" t="n">
+        <v>12989512635000</v>
+      </c>
+      <c r="G455" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Mexico_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G455"/>
+  <dimension ref="A1:G456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10857,18 +10857,41 @@
         <v>7</v>
       </c>
       <c r="C455">
-        <v>12989512635000</v>
+        <v>12986756081000</v>
       </c>
       <c r="D455">
-        <v>12989512635000</v>
+        <v>12986756081000</v>
       </c>
       <c r="E455">
-        <v>12989512635000</v>
+        <v>12986756081000</v>
       </c>
       <c r="F455">
-        <v>12989512635000</v>
+        <v>12986756081000</v>
       </c>
       <c r="G455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B456" t="s">
+        <v>7</v>
+      </c>
+      <c r="C456">
+        <v>13187377363000</v>
+      </c>
+      <c r="D456">
+        <v>13187377363000</v>
+      </c>
+      <c r="E456">
+        <v>13187377363000</v>
+      </c>
+      <c r="F456">
+        <v>13187377363000</v>
+      </c>
+      <c r="G456">
         <v>0</v>
       </c>
     </row>
